--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1905.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1905.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.358297344736688</v>
+        <v>1.930923581123352</v>
       </c>
       <c r="B1">
-        <v>3.246146714047492</v>
+        <v>3.262081623077393</v>
       </c>
       <c r="C1">
-        <v>2.721523313305009</v>
+        <v>2.823889255523682</v>
       </c>
       <c r="D1">
-        <v>2.181018701873526</v>
+        <v>0.9937343001365662</v>
       </c>
       <c r="E1">
-        <v>1.321947367030905</v>
+        <v>0.6492149829864502</v>
       </c>
     </row>
   </sheetData>
